--- a/output/below_50/tRNA-Pro-AGG-2-6.xlsx
+++ b/output/below_50/tRNA-Pro-AGG-2-6.xlsx
@@ -12,210 +12,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>chr14</t>
   </si>
   <si>
-    <t>21081561</t>
-  </si>
-  <si>
-    <t>21081584</t>
+    <t>21081951</t>
+  </si>
+  <si>
+    <t>21081974</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>21081954</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CGCGAGTTCAATTCTCGCTG</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>8% (20)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 40, Doench 2016: 86%, Moreno-Mateos: 8%</t>
+  </si>
+  <si>
+    <t>1.94654E+11</t>
+  </si>
+  <si>
+    <t>21081952</t>
+  </si>
+  <si>
+    <t>21081975</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>21081955</t>
+  </si>
+  <si>
+    <t>TCGCGAGTTCAATTCTCGCT</t>
+  </si>
+  <si>
+    <t>30% (43)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 45, Doench 2016: 30%, Moreno-Mateos: 61%</t>
+  </si>
+  <si>
+    <t>38642630535</t>
+  </si>
+  <si>
+    <t>21081959</t>
+  </si>
+  <si>
+    <t>21081982</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>21081979</t>
+  </si>
+  <si>
+    <t>AGAATTGAACTCGCGACCCC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>29% (35)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 27, Doench 2016: 53%, Moreno-Mateos: 29%</t>
+  </si>
+  <si>
+    <t>3.52402E+11</t>
+  </si>
+  <si>
+    <t>21081998</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21081978</t>
+  </si>
+  <si>
+    <t>GCGCTGGTCTTGTAAACCAG</t>
+  </si>
+  <si>
+    <t>96% (68)</t>
+  </si>
+  <si>
+    <t>97% (81)</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 24, Doench 2016: 96%, Moreno-Mateos: 97%</t>
+  </si>
+  <si>
+    <t>1.43887E+11</t>
+  </si>
+  <si>
+    <t>21081976</t>
+  </si>
+  <si>
+    <t>21081999</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>AGCGCTGGTCTTGTAAACCA</t>
+  </si>
+  <si>
+    <t>89% (63)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 19, Doench 2016: 89%, Moreno-Mateos: 71%</t>
+  </si>
+  <si>
+    <t>1.11636E+11</t>
+  </si>
+  <si>
+    <t>21081977</t>
+  </si>
+  <si>
+    <t>21082000</t>
+  </si>
+  <si>
+    <t>21081980</t>
+  </si>
+  <si>
+    <t>GAGCGCTGGTCTTGTAAACC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>37% (39)</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>21081581</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GCTCGTCCGGGATTTGAACC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>21081562</t>
-  </si>
-  <si>
-    <t>21081585</t>
-  </si>
-  <si>
-    <t>21081582</t>
-  </si>
-  <si>
-    <t>CTCGTCCGGGATTTGAACCC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>21081567</t>
-  </si>
-  <si>
-    <t>21081590</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>21081570</t>
-  </si>
-  <si>
-    <t>GAGGTCCCGGGTTCAAATCC</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 19, Doench 2016: 63%, Moreno-Mateos: 37%</t>
+  </si>
+  <si>
+    <t>2.00438E+11</t>
+  </si>
+  <si>
+    <t>21081991</t>
+  </si>
+  <si>
+    <t>21082014</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>21081994</t>
+  </si>
+  <si>
+    <t>TAGCTCAGGGGTTAGAGCGC</t>
   </si>
   <si>
     <t>50% (50)</t>
   </si>
   <si>
-    <t>61% (50)</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>21081579</t>
-  </si>
-  <si>
-    <t>21081602</t>
-  </si>
-  <si>
-    <t>CTTAGGGTGCGAGAGGTCCC</t>
-  </si>
-  <si>
-    <t>91% (70)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>21081580</t>
-  </si>
-  <si>
-    <t>21081603</t>
-  </si>
-  <si>
-    <t>21081583</t>
-  </si>
-  <si>
-    <t>GCTTAGGGTGCGAGAGGTCC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>95% (77)</t>
+    <t>16% (27)</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>21081586</t>
-  </si>
-  <si>
-    <t>21081609</t>
-  </si>
-  <si>
-    <t>21081589</t>
-  </si>
-  <si>
-    <t>ATTCTCGCTTAGGGTGCGAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>MIT Spec. Score: 21, Doench 2016: 50%, Moreno-Mateos: 16%</t>
+  </si>
+  <si>
+    <t>2.73508E+11</t>
+  </si>
+  <si>
+    <t>21082017</t>
+  </si>
+  <si>
+    <t>GCGCTCTAACCCCTGAGCTA</t>
+  </si>
+  <si>
+    <t>56% (52)</t>
+  </si>
+  <si>
+    <t>44% (42)</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>21081595</t>
-  </si>
-  <si>
-    <t>21081618</t>
-  </si>
-  <si>
-    <t>21081598</t>
-  </si>
-  <si>
-    <t>AGGGGTATGATTCTCGCTTA</t>
+    <t>MIT Spec. Score: 10, Doench 2016: 56%, Moreno-Mateos: 44%</t>
+  </si>
+  <si>
+    <t>44151115</t>
+  </si>
+  <si>
+    <t>21082003</t>
+  </si>
+  <si>
+    <t>21082026</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>21082006</t>
+  </si>
+  <si>
+    <t>ACGAGGGCTCCATAGCTCAG</t>
+  </si>
+  <si>
+    <t>100% (75)</t>
   </si>
   <si>
     <t>94% (75)</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>21081596</t>
-  </si>
-  <si>
-    <t>21081619</t>
-  </si>
-  <si>
-    <t>21081599</t>
-  </si>
-  <si>
-    <t>TAGGGGTATGATTCTCGCTT</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 29, Doench 2016: 100%, Moreno-Mateos: 94%</t>
+  </si>
+  <si>
+    <t>1.9675E+11</t>
+  </si>
+  <si>
+    <t>21082020</t>
+  </si>
+  <si>
+    <t>21082043</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>21082023</t>
+  </si>
+  <si>
+    <t>AGAGAAACTAAAAGCAGACG</t>
+  </si>
+  <si>
+    <t>12% (24)</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 38, Doench 2016: 89%, Moreno-Mateos: 12%</t>
+  </si>
+  <si>
+    <t>1.15931E+11</t>
   </si>
 </sst>
 </file>
@@ -260,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -283,10 +397,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -304,25 +418,25 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -336,16 +450,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -357,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -378,10 +492,10 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -389,22 +503,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -416,31 +530,31 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -448,22 +562,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -475,31 +589,31 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -507,22 +621,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -534,31 +648,31 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -566,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -593,31 +707,31 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +739,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -652,31 +766,31 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -684,22 +798,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -711,31 +825,149 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
